--- a/biology/Zoologie/Eukoenenia_lienhardi/Eukoenenia_lienhardi.xlsx
+++ b/biology/Zoologie/Eukoenenia_lienhardi/Eukoenenia_lienhardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eukoenenia lienhardi est une espèce de palpigrades de la famille des Eukoeneniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Indonésie à Sumatra, à Singapour et au Brunei[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Indonésie à Sumatra, à Singapour et au Brunei.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 0,77 mm[2].
-Les femelles de Eukoenenia lienhardi bolkiah mesurent de 0,77 à 1,04 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 0,77 mm.
+Les femelles de Eukoenenia lienhardi bolkiah mesurent de 0,77 à 1,04 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Palpigrades of the World (version 1.0)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Palpigrades of the World (version 1.0) :
 Eukoenenia lienhardi lienhardi Condé, 1989 de Sumatra et Singapour
 Eukoenenia lienhardi bolkiah Condé, 1993 du Brunei</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Lienhard[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Charles Lienhard.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Condé, 1989 : Palpigrades (Arachnida) endogés de l'Inde et de Sumatra. Revue Suisse de Zoologie, vol. 96, no 2, p. 411-424 (texte original).
 Condé, 1993 : Palpigrades de Brunei et de Hong- Kong. Revue Suisse de Zoologie, vol. 100, no 1, p. 25-30 (texte original).</t>
